--- a/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb166/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCF10D-D21F-584B-8550-3091D0437F3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51671951-0455-6846-85DC-14D8AC7A7B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20100" yWindow="560" windowWidth="17280" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="88">
   <si>
     <t>Pounds</t>
   </si>
@@ -61,12 +61,6 @@
     <t>All other ports</t>
   </si>
   <si>
-    <t>669,697,825</t>
-  </si>
-  <si>
-    <t>1168,767,336</t>
-  </si>
-  <si>
     <t>Albacorc</t>
   </si>
   <si>
@@ -284,6 +278,12 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Los Angeles Area</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -664,29 +664,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>196836761</v>
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
         <v>40661399</v>
@@ -734,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>116369500</v>
@@ -751,10 +751,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>7053207</v>
@@ -768,10 +768,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>11574820</v>
@@ -785,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>3277435</v>
@@ -802,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>18868466</v>
@@ -819,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>2230110</v>
@@ -836,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
         <v>1181000</v>
@@ -853,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2">
         <v>49770</v>
@@ -870,10 +870,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>68120</v>
@@ -887,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>6556</v>
@@ -904,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2">
         <v>94849</v>
@@ -921,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2">
         <v>14710</v>
@@ -938,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
         <v>14704</v>
@@ -955,10 +955,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2">
         <v>398301407</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6">
         <f>SUM(D2:D16)-D17</f>
@@ -987,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2">
         <v>156311159</v>
@@ -1004,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
         <v>72224866</v>
@@ -1021,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
         <v>16387964</v>
@@ -1038,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
         <v>1066768</v>
@@ -1055,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2">
         <v>728105</v>
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>670</v>
@@ -1089,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
         <v>246719532</v>
@@ -1105,7 +1105,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="6">
         <f>SUM(D19:D24)-D25</f>
@@ -1121,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
         <v>645020939</v>
@@ -1138,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2">
         <v>9017538</v>
@@ -1155,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2">
         <v>2667031</v>
@@ -1172,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>231996</v>
@@ -1189,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2">
         <v>4158502</v>
@@ -1206,10 +1206,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="2">
         <v>318665</v>
@@ -1223,10 +1223,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>613992</v>
@@ -1240,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2">
         <v>196761</v>
@@ -1257,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
         <v>431357</v>
@@ -1274,10 +1274,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2">
         <v>316368</v>
@@ -1291,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2">
         <v>39574</v>
@@ -1308,10 +1308,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2">
         <v>332575</v>
@@ -1325,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2">
         <v>327744</v>
@@ -1342,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2">
         <v>83592</v>
@@ -1359,10 +1359,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2">
         <v>93852</v>
@@ -1376,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2">
         <v>327707</v>
@@ -1393,10 +1393,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
         <v>66949</v>
@@ -1410,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2">
         <v>68214</v>
@@ -1427,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2">
         <v>59090</v>
@@ -1444,10 +1444,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D47" s="2">
         <v>96427</v>
@@ -1461,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2">
         <v>34092</v>
@@ -1478,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="2">
         <v>71105</v>
@@ -1495,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2">
         <v>56417</v>
@@ -1512,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2">
         <v>147810</v>
@@ -1529,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2">
         <v>545990</v>
@@ -1546,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2">
         <v>70640</v>
@@ -1563,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2">
         <v>9990</v>
@@ -1580,10 +1580,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2">
         <v>13140</v>
@@ -1597,10 +1597,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2">
         <v>14537</v>
@@ -1614,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2">
         <v>12045</v>
@@ -1631,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>14158</v>
@@ -1648,10 +1648,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2">
         <v>43930</v>
@@ -1665,10 +1665,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" s="2">
         <v>37693</v>
@@ -1682,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2">
         <v>8251</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>19247</v>
@@ -1716,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2">
         <v>78739</v>
@@ -1733,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="2">
         <v>9231</v>
@@ -1750,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D65" s="2">
         <v>29972</v>
@@ -1767,10 +1767,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D66" s="2">
         <v>23825</v>
@@ -1784,10 +1784,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>38774</v>
@@ -1801,10 +1801,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>20727520</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D69" s="6">
         <f>SUM(D29:D67)-D68</f>
@@ -1833,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2">
         <v>1725490</v>
@@ -1850,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>28985</v>
@@ -1867,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2">
         <v>1228882</v>
@@ -1884,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D73" s="2">
         <v>84386</v>
@@ -1901,10 +1901,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>4553</v>
@@ -1918,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>9231</v>
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>2080</v>
@@ -1952,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2">
         <v>17975</v>
@@ -1969,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2">
         <v>3101582</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D79" s="6">
         <f>SUM(D70:D77)-D78</f>
@@ -2001,10 +2001,10 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>84736</v>
@@ -2018,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>6944</v>
@@ -2035,10 +2035,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D82" s="2">
         <v>32089</v>
@@ -2052,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D83" s="2">
         <v>18843</v>
@@ -2069,10 +2069,10 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D84" s="2">
         <v>3003</v>
@@ -2086,10 +2086,10 @@
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>13931</v>
@@ -2103,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>159546</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D87" s="6">
         <f>SUM(D80:D85)-D86</f>
@@ -2135,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D88" s="2">
         <v>231623</v>
@@ -2149,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>13601</v>
@@ -2166,10 +2166,10 @@
         <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D90" s="2">
         <v>4803</v>
@@ -2183,10 +2183,10 @@
         <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>4102</v>
@@ -2200,10 +2200,10 @@
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2">
         <v>4035</v>
@@ -2217,10 +2217,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D93" s="2">
         <v>3410</v>
@@ -2234,10 +2234,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D94" s="2">
         <v>1385</v>
@@ -2251,10 +2251,10 @@
         <v>6</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2">
         <v>5075</v>
@@ -2268,10 +2268,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>12978</v>
@@ -2285,10 +2285,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>281012</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C98" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D98" s="6">
         <f>SUM(D88:D96)-D97</f>
@@ -2317,10 +2317,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>4194</v>
@@ -2334,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D100" s="2">
         <v>17467</v>
@@ -2348,10 +2348,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D101" s="2">
         <v>3417</v>
@@ -2365,10 +2365,10 @@
         <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D102" s="2">
         <v>4708</v>
@@ -2382,10 +2382,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D103" s="2">
         <v>5609</v>
@@ -2399,10 +2399,10 @@
         <v>7</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D104" s="2">
         <v>5859</v>
@@ -2416,10 +2416,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>16241</v>
@@ -2433,10 +2433,10 @@
         <v>7</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>57495</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C107" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D107" s="6">
         <f>SUM(D99:D105)-D106</f>
@@ -2465,10 +2465,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>4815</v>
@@ -2482,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D109" s="2">
         <v>244994</v>
@@ -2499,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D110" s="2">
         <v>910</v>
@@ -2516,10 +2516,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2">
         <v>49951</v>
@@ -2533,10 +2533,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>300670</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C113" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D113" s="6">
         <f>SUM(D108:D111)-D112</f>
@@ -2565,10 +2565,10 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>10185</v>
@@ -2582,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D115" s="2">
         <v>4691</v>
@@ -2596,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2">
         <v>442</v>
@@ -2613,10 +2613,10 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>15318</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="118" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C118" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D118" s="6">
         <f>SUM(D114:D116)-D117</f>
@@ -2645,10 +2645,10 @@
         <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>3369</v>
@@ -2662,10 +2662,10 @@
         <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D120" s="2">
         <v>11830</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2">
         <v>15199</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="122" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C122" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D122" s="6">
         <f>SUM(D119:D120)-D121</f>
@@ -2711,10 +2711,10 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>2052</v>
@@ -2728,10 +2728,10 @@
         <v>11</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>2983</v>
@@ -2745,10 +2745,10 @@
         <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2">
         <v>3879</v>
@@ -2762,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2">
         <v>8914</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C127" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D127" s="6">
         <f>SUM(D123:D125)-D126</f>
@@ -2794,10 +2794,10 @@
         <v>12</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D128" s="2">
         <v>1384</v>
@@ -2811,10 +2811,10 @@
         <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D129" s="2">
         <v>1850</v>
@@ -2828,10 +2828,10 @@
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D130" s="2">
         <v>4640</v>
@@ -2845,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2">
         <v>1756</v>
@@ -2862,10 +2862,10 @@
         <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D132" s="2">
         <v>9630</v>
@@ -2878,7 +2878,7 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D133" s="6">
         <f>SUM(D128:D131)-D132</f>
@@ -2893,16 +2893,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" s="2">
+        <v>669697825</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1168767336</v>
       </c>
     </row>
   </sheetData>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51671951-0455-6846-85DC-14D8AC7A7B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B588D0-40A6-4E48-994B-0BCEC4CB3F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="560" windowWidth="17280" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22740" yWindow="1000" windowWidth="17280" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="89">
   <si>
     <t>Pounds</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,6 +2140,9 @@
       <c r="B88" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C88" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D88" s="2">
         <v>231623</v>
       </c>
@@ -2336,6 +2342,9 @@
       <c r="B100" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C100" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D100" s="2">
         <v>17467</v>
       </c>
@@ -2583,6 +2592,9 @@
       </c>
       <c r="B115" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D115" s="2">
         <v>4691</v>
